--- a/data/trans_media/P34F2H-Provincia-trans_media.xlsx
+++ b/data/trans_media/P34F2H-Provincia-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,2</t>
+          <t>0,82; 1,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,95</t>
+          <t>0,7; 0,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,02</t>
+          <t>0,79; 1,03</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,32</t>
+          <t>1,09; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 0,97</t>
+          <t>0,83; 0,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,13</t>
+          <t>0,98; 1,12</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,16</t>
+          <t>0,87; 1,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,89</t>
+          <t>0,71; 0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,88</t>
+          <t>0,69; 0,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,8</t>
+          <t>0,59; 0,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,72</t>
+          <t>0,46; 0,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,5</t>
+          <t>0,32; 0,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,57</t>
+          <t>0,41; 0,58</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,69</t>
+          <t>1,02; 1,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,09</t>
+          <t>0,82; 1,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,27</t>
+          <t>0,94; 1,29</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,95</t>
+          <t>0,76; 0,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,01</t>
+          <t>0,8; 1,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 0,95</t>
+          <t>0,81; 0,94</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,81</t>
+          <t>0,63; 0,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,76</t>
+          <t>0,59; 0,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,76</t>
+          <t>0,63; 0,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/P34F2H-Provincia-trans_media.xlsx
+++ b/data/trans_media/P34F2H-Provincia-trans_media.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,2</t>
+          <t>0,82; 1,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,94</t>
+          <t>0,71; 0,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,03</t>
+          <t>0,8; 1,02</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,33</t>
+          <t>1,1; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,12</t>
+          <t>0,99; 1,14</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,17</t>
+          <t>0,85; 1,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,89</t>
+          <t>0,7; 0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,89</t>
+          <t>0,68; 0,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,79</t>
+          <t>0,58; 0,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,81</t>
+          <t>0,66; 0,82</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,74</t>
+          <t>0,45; 0,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,58</t>
+          <t>0,42; 0,58</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,72</t>
+          <t>1,01; 1,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,07</t>
+          <t>0,79; 1,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 0,96</t>
+          <t>0,77; 0,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,0</t>
+          <t>0,81; 1,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 0,94</t>
+          <t>0,81; 0,95</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,76</t>
+          <t>0,63; 0,75</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 0,94</t>
+          <t>0,86; 0,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
